--- a/Data/Motif stuff/MotifsAndComp.xlsx
+++ b/Data/Motif stuff/MotifsAndComp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>m259_0.6</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t xml:space="preserve">9-14 </t>
+  </si>
+  <si>
+    <t>MirsDiffDown,notSig</t>
+  </si>
+  <si>
+    <t>CACGAC</t>
+  </si>
+  <si>
+    <t>Sig</t>
   </si>
 </sst>
 </file>
@@ -389,10 +398,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,13 +714,13 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -768,7 +777,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -946,7 +955,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="1"/>
@@ -1094,7 +1103,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G24" s="1"/>
@@ -1296,7 +1305,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>82</v>
       </c>
@@ -1311,17 +1320,28 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
